--- a/Longtan site lithic types.xlsx
+++ b/Longtan site lithic types.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\龙潭发掘Quina标本数据-2023.8\LT石制品数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\龙潭文章-正文&amp;补充材料\龙潭发掘Quina标本数据-2023.8\Lithic-data-Longtan-site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF675F8D-FC2E-44D9-8CA5-8AFCD158FDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8486F9F-3897-4330-A3C9-111358571670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6171" yWindow="4226" windowWidth="16458" windowHeight="9454" xr2:uid="{B222558F-C96B-4FA7-9ACE-221ED409920E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{B222558F-C96B-4FA7-9ACE-221ED409920E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t>Quina scrapers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +189,90 @@
   </si>
   <si>
     <t>Flakes from Cores on Surface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quina cores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resharpening flakes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ordinary scrapers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Trachyte </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andesite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sandstone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Granite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siliceous rock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diabase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quartz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mudstone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discoidal cores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discoidal flakes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surface flakes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total cores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total flakes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Typology/Raw materials</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +328,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +338,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -441,6 +530,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C81475-EFED-448C-88F4-453F683A8818}">
-  <dimension ref="B2:O38"/>
+  <dimension ref="B2:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -774,10 +878,23 @@
     <col min="8" max="8" width="28.92578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.640625" style="1"/>
     <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.640625" style="1"/>
+    <col min="11" max="12" width="8.640625" style="1"/>
+    <col min="13" max="13" width="23.640625" style="30" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="30" customWidth="1"/>
+    <col min="15" max="15" width="9.35546875" style="30" customWidth="1"/>
+    <col min="16" max="16" width="8.2109375" style="30" customWidth="1"/>
+    <col min="17" max="17" width="8.640625" style="30"/>
+    <col min="18" max="18" width="10.640625" style="30" customWidth="1"/>
+    <col min="19" max="19" width="6.5" style="30" customWidth="1"/>
+    <col min="20" max="20" width="14.0703125" style="30" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" style="30" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="30" customWidth="1"/>
+    <col min="23" max="23" width="7.640625" style="30" customWidth="1"/>
+    <col min="24" max="24" width="7.0703125" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
@@ -790,8 +907,44 @@
       <c r="J2" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="M2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
         <v>5</v>
       </c>
@@ -815,8 +968,31 @@
         <f t="shared" ref="J3:J8" si="1">I3/139</f>
         <v>0.1223021582733813</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="M3" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2">
+        <v>11</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2">
+        <v>2</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="12">
+        <f>SUM(N3:W3)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B4" s="25"/>
       <c r="C4" s="8" t="s">
         <v>1</v>
@@ -838,15 +1014,33 @@
         <f t="shared" si="1"/>
         <v>0.25899280575539568</v>
       </c>
-      <c r="N4" s="1">
-        <v>2049</v>
-      </c>
-      <c r="O4" s="19">
-        <f>N4/3487</f>
-        <v>0.58761112704330365</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="M4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="12">
+        <f t="shared" ref="X4:X23" si="2">SUM(N4:W4)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B5" s="25"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
@@ -868,15 +1062,31 @@
         <f t="shared" si="1"/>
         <v>0.41007194244604317</v>
       </c>
-      <c r="N5" s="1">
-        <v>423</v>
-      </c>
-      <c r="O5" s="19">
-        <f t="shared" ref="O5:O13" si="2">N5/3487</f>
-        <v>0.12130771436765128</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="M5" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="2">
+        <v>19</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="12">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -898,15 +1108,31 @@
         <f t="shared" si="1"/>
         <v>0.1079136690647482</v>
       </c>
-      <c r="N6" s="1">
-        <v>333</v>
-      </c>
-      <c r="O6" s="19">
+      <c r="M6" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="2">
+        <v>10</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2">
+        <v>4</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="12">
         <f t="shared" si="2"/>
-        <v>9.5497562374533981E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B7" s="25"/>
       <c r="C7" s="5" t="s">
         <v>4</v>
@@ -928,15 +1154,45 @@
         <f t="shared" si="1"/>
         <v>0.10071942446043165</v>
       </c>
-      <c r="N7" s="1">
-        <v>241</v>
-      </c>
-      <c r="O7" s="19">
+      <c r="M7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="2">
+        <v>80</v>
+      </c>
+      <c r="O7" s="2">
+        <v>14</v>
+      </c>
+      <c r="P7" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2">
+        <v>2</v>
+      </c>
+      <c r="S7" s="2">
+        <v>9</v>
+      </c>
+      <c r="T7" s="2">
+        <v>4</v>
+      </c>
+      <c r="U7" s="2">
+        <v>2</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2">
+        <v>3</v>
+      </c>
+      <c r="X7" s="12">
         <f t="shared" si="2"/>
-        <v>6.9113851448236313E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B8" s="25"/>
       <c r="C8" s="6" t="s">
         <v>19</v>
@@ -958,15 +1214,55 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N8" s="1">
-        <v>112</v>
-      </c>
-      <c r="O8" s="19">
+      <c r="M8" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="2">
+        <f>SUM(N3:N7)</f>
+        <v>124</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" ref="O8:W8" si="3">SUM(O3:O7)</f>
+        <v>17</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="X8" s="12">
         <f t="shared" si="2"/>
-        <v>3.2119300258101523E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="D9" s="14">
         <v>242</v>
@@ -988,15 +1284,31 @@
         <f>I9/47</f>
         <v>0.57446808510638303</v>
       </c>
-      <c r="N9" s="1">
-        <v>103</v>
-      </c>
-      <c r="O9" s="19">
+      <c r="M9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="2">
+        <v>11</v>
+      </c>
+      <c r="O9" s="2">
+        <v>3</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="12">
         <f t="shared" si="2"/>
-        <v>2.953828505878979E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="D10" s="11"/>
       <c r="F10" s="19"/>
@@ -1010,15 +1322,35 @@
         <f>I10/47</f>
         <v>0.42553191489361702</v>
       </c>
-      <c r="N10" s="1">
-        <v>98</v>
-      </c>
-      <c r="O10" s="19">
+      <c r="M10" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="2">
+        <v>34</v>
+      </c>
+      <c r="O10" s="2">
+        <v>6</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2">
+        <v>2</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1</v>
+      </c>
+      <c r="U10" s="2">
+        <v>2</v>
+      </c>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="12">
         <f t="shared" si="2"/>
-        <v>2.8104387725838832E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1036,15 +1368,29 @@
         <f>I11/47</f>
         <v>1</v>
       </c>
-      <c r="N11" s="1">
-        <v>70</v>
-      </c>
-      <c r="O11" s="19">
+      <c r="M11" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="2">
+        <v>4</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="12">
         <f t="shared" si="2"/>
-        <v>2.0074562661313449E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B12" s="27" t="s">
         <v>23</v>
       </c>
@@ -1055,7 +1401,7 @@
         <v>476</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" ref="E12:E20" si="3">D12/878</f>
+        <f t="shared" ref="E12:E20" si="4">D12/878</f>
         <v>0.54214123006833714</v>
       </c>
       <c r="F12" s="19">
@@ -1072,15 +1418,35 @@
         <f>I12/59</f>
         <v>0.3559322033898305</v>
       </c>
-      <c r="N12" s="1">
-        <v>46</v>
-      </c>
-      <c r="O12" s="19">
+      <c r="M12" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="2">
+        <v>20</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2">
+        <v>2</v>
+      </c>
+      <c r="T12" s="2">
+        <v>2</v>
+      </c>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="12">
         <f t="shared" si="2"/>
-        <v>1.3191855463148839E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B13" s="28"/>
       <c r="C13" s="6" t="s">
         <v>27</v>
@@ -1089,7 +1455,7 @@
         <v>254</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.28929384965831434</v>
       </c>
       <c r="F13" s="19"/>
@@ -1103,15 +1469,35 @@
         <f>I13/59</f>
         <v>0.11864406779661017</v>
       </c>
-      <c r="N13" s="1">
-        <v>12</v>
-      </c>
-      <c r="O13" s="19">
+      <c r="M13" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="2">
+        <v>46</v>
+      </c>
+      <c r="O13" s="2">
+        <v>4</v>
+      </c>
+      <c r="P13" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2">
+        <v>2</v>
+      </c>
+      <c r="T13" s="2">
+        <v>3</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="12">
         <f t="shared" si="2"/>
-        <v>3.4413535990823058E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B14" s="28"/>
       <c r="C14" s="13" t="s">
         <v>7</v>
@@ -1120,11 +1506,11 @@
         <v>15</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7084282460136675E-2</v>
       </c>
       <c r="F14" s="19">
-        <f t="shared" ref="F14:F20" si="4">D14/624</f>
+        <f t="shared" ref="F14:F20" si="5">D14/624</f>
         <v>2.403846153846154E-2</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -1137,8 +1523,43 @@
         <f>I14/59</f>
         <v>0.2711864406779661</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="M14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="31">
+        <v>366</v>
+      </c>
+      <c r="O14" s="2">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>3</v>
+      </c>
+      <c r="R14" s="2">
+        <v>4</v>
+      </c>
+      <c r="S14" s="2">
+        <v>51</v>
+      </c>
+      <c r="T14" s="2">
+        <v>10</v>
+      </c>
+      <c r="U14" s="2">
+        <v>6</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1</v>
+      </c>
+      <c r="W14" s="2"/>
+      <c r="X14" s="12">
+        <f t="shared" si="2"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B15" s="28"/>
       <c r="C15" s="6" t="s">
         <v>22</v>
@@ -1147,11 +1568,11 @@
         <v>16</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8223234624145785E-2</v>
       </c>
       <c r="F15" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.564102564102564E-2</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -1164,8 +1585,41 @@
         <f>I15/59</f>
         <v>0.25423728813559321</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="M15" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="2">
+        <v>214</v>
+      </c>
+      <c r="O15" s="2">
+        <v>16</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2">
+        <v>3</v>
+      </c>
+      <c r="S15" s="2">
+        <v>15</v>
+      </c>
+      <c r="T15" s="2">
+        <v>1</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2">
+        <v>1</v>
+      </c>
+      <c r="X15" s="12">
+        <f t="shared" si="2"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B16" s="28"/>
       <c r="C16" s="6" t="s">
         <v>8</v>
@@ -1174,11 +1628,11 @@
         <v>21</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3917995444191344E-2</v>
       </c>
       <c r="F16" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3653846153846152E-2</v>
       </c>
       <c r="H16" s="17" t="s">
@@ -1191,8 +1645,55 @@
         <f>I16/59</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="M16" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="2">
+        <f>SUM(N9:N15)</f>
+        <v>695</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" ref="O16:W16" si="6">SUM(O9:O15)</f>
+        <v>56</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="V16" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X16" s="12">
+        <f t="shared" si="2"/>
+        <v>878</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B17" s="28"/>
       <c r="C17" s="6" t="s">
         <v>24</v>
@@ -1201,11 +1702,11 @@
         <v>7</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.972665148063782E-3</v>
       </c>
       <c r="F17" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1217948717948718E-2</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -1218,8 +1719,31 @@
         <f>I17/12</f>
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="M17" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>47</v>
+      </c>
+      <c r="O17" s="2">
+        <v>5</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2">
+        <v>1</v>
+      </c>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="12">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B18" s="28"/>
       <c r="C18" s="6" t="s">
         <v>9</v>
@@ -1228,11 +1752,11 @@
         <v>5</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.6947608200455585E-3</v>
       </c>
       <c r="F18" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.0128205128205121E-3</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -1245,8 +1769,37 @@
         <f>I18/12</f>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="M18" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="2">
+        <v>66</v>
+      </c>
+      <c r="O18" s="2">
+        <v>5</v>
+      </c>
+      <c r="P18" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>2</v>
+      </c>
+      <c r="R18" s="2">
+        <v>1</v>
+      </c>
+      <c r="S18" s="2">
+        <v>3</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="12">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B19" s="28"/>
       <c r="C19" s="6" t="s">
         <v>25</v>
@@ -1255,11 +1808,11 @@
         <v>27</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0751708428246014E-2</v>
       </c>
       <c r="F19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3269230769230768E-2</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -1272,8 +1825,29 @@
         <f>I19/12</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="M19" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="2">
+        <v>12</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="12">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B20" s="29"/>
       <c r="C20" s="13" t="s">
         <v>10</v>
@@ -1282,11 +1856,11 @@
         <v>57</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.4920273348519367E-2</v>
       </c>
       <c r="F20" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.1346153846153841E-2</v>
       </c>
       <c r="H20" s="17" t="s">
@@ -1299,8 +1873,35 @@
         <f>I20/12</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="M20" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="2">
+        <v>9</v>
+      </c>
+      <c r="O20" s="2">
+        <v>2</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1</v>
+      </c>
+      <c r="S20" s="2">
+        <v>3</v>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="12">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D21" s="14">
         <v>878</v>
       </c>
@@ -1322,8 +1923,35 @@
         <f>I21/1042</f>
         <v>0.45681381957773515</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="M21" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="2">
+        <v>63</v>
+      </c>
+      <c r="O21" s="2">
+        <v>7</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2">
+        <v>1</v>
+      </c>
+      <c r="S21" s="2">
+        <v>9</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1</v>
+      </c>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="12">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
       <c r="F22" s="19"/>
       <c r="H22" s="6" t="s">
@@ -1333,11 +1961,49 @@
         <v>254</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" ref="J22:J29" si="5">I22/1042</f>
+        <f t="shared" ref="J22:J29" si="7">I22/1042</f>
         <v>0.2437619961612284</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="M22" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="N22" s="2">
+        <f>SUM(N17:N21)</f>
+        <v>197</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" ref="O22:W22" si="8">SUM(O17:O21)</f>
+        <v>20</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="T22" s="2">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="12">
+        <f t="shared" si="2"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1352,11 +2018,48 @@
         <v>79</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.5815738963531665E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="M23" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N23" s="9">
+        <v>1016</v>
+      </c>
+      <c r="O23" s="9">
+        <v>93</v>
+      </c>
+      <c r="P23" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>13</v>
+      </c>
+      <c r="R23" s="9">
+        <v>13</v>
+      </c>
+      <c r="S23" s="9">
+        <v>103</v>
+      </c>
+      <c r="T23" s="9">
+        <v>25</v>
+      </c>
+      <c r="U23" s="9">
+        <v>10</v>
+      </c>
+      <c r="V23" s="9">
+        <v>2</v>
+      </c>
+      <c r="W23" s="9">
+        <v>4</v>
+      </c>
+      <c r="X23" s="12">
+        <f t="shared" si="2"/>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B24" s="27" t="s">
         <v>11</v>
       </c>
@@ -1364,11 +2067,11 @@
         <v>12</v>
       </c>
       <c r="D24" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" ref="E24:E31" si="6">D24/179</f>
-        <v>0.64804469273743015</v>
+        <f t="shared" ref="E24:E29" si="9">D24/179</f>
+        <v>0.68156424581005581</v>
       </c>
       <c r="F24" s="19"/>
       <c r="H24" s="5" t="s">
@@ -1378,11 +2081,11 @@
         <v>13</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2476007677543186E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B25" s="28"/>
       <c r="C25" s="12" t="s">
         <v>13</v>
@@ -1391,7 +2094,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.8212290502793297E-2</v>
       </c>
       <c r="F25" s="19"/>
@@ -1402,21 +2105,21 @@
         <v>16</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5355086372360844E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B26" s="28"/>
       <c r="C26" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" si="6"/>
-        <v>2.23463687150838E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9106145251396648E-2</v>
       </c>
       <c r="F26" s="19"/>
       <c r="H26" s="6" t="s">
@@ -1426,21 +2129,21 @@
         <v>81</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.7735124760076782E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B27" s="28"/>
       <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" si="6"/>
-        <v>0.11173184357541899</v>
+        <f t="shared" si="9"/>
+        <v>0.11731843575418995</v>
       </c>
       <c r="F27" s="19"/>
       <c r="H27" s="3" t="s">
@@ -1450,11 +2153,11 @@
         <v>116</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11132437619961612</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B28" s="28"/>
       <c r="C28" s="3" t="s">
         <v>16</v>
@@ -1463,7 +2166,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.3798882681564241E-2</v>
       </c>
       <c r="F28" s="19"/>
@@ -1474,21 +2177,18 @@
         <v>7</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.7178502879078695E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B29" s="28"/>
-      <c r="C29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="2">
-        <v>3</v>
-      </c>
-      <c r="E29" s="7">
-        <f t="shared" si="6"/>
-        <v>1.6759776536312849E-2</v>
+      <c r="D29" s="14">
+        <v>179</v>
+      </c>
+      <c r="E29" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="F29" s="19"/>
       <c r="H29" s="17" t="s">
@@ -1498,23 +2198,16 @@
         <v>1042</v>
       </c>
       <c r="J29" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B30" s="29"/>
-      <c r="C30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="2">
-        <v>7</v>
-      </c>
-      <c r="E30" s="7">
-        <f>D30/179</f>
-        <v>3.9106145251396648E-2</v>
-      </c>
-      <c r="F30" s="19"/>
+      <c r="F30" s="20">
+        <f>D29/3487</f>
+        <v>5.1333524519644395E-2</v>
+      </c>
       <c r="H30" s="16" t="s">
         <v>33</v>
       </c>
@@ -1523,22 +2216,6 @@
         <v>1299</v>
       </c>
       <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D31" s="14">
-        <v>179</v>
-      </c>
-      <c r="E31" s="22">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F31" s="20">
-        <f>D31/3487</f>
-        <v>5.1333524519644395E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D33" s="2" t="s">
@@ -1592,9 +2269,6 @@
         <v>0.62747347289934041</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="F37" s="19"/>
-    </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="23" t="s">
         <v>36</v>
@@ -1610,8 +2284,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B38:C38"/>
+  <mergeCells count="5">
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="B12:B20"/>
@@ -1657,7 +2330,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E20 E34:E35">
+  <conditionalFormatting sqref="E34:E35 E12:E20">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1667,44 +2340,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{2F4AC0A7-4C96-493D-B65F-DB325B73DC89}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E30">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.59999389629810485"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{941911BD-5580-4AFE-B1B2-A3BB897F5DCA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="8" tint="0.79998168889431442"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{77807714-F3DD-4478-8D23-72CEEA8A34ED}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6F840F8C-BBD7-46EC-9DB1-4272B962F3B6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1719,6 +2354,44 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{E25F3721-EFBA-48C5-B77A-001AF2CBBD07}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E28">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{941911BD-5580-4AFE-B1B2-A3BB897F5DCA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="8" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{77807714-F3DD-4478-8D23-72CEEA8A34ED}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6F840F8C-BBD7-46EC-9DB1-4272B962F3B6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1763,7 +2436,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E12:E20 E34:E35</xm:sqref>
+          <xm:sqref>E34:E35 E12:E20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E25F3721-EFBA-48C5-B77A-001AF2CBBD07}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J21:J28 J3:J7 J9:J10 J12:J15 J17:J19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{941911BD-5580-4AFE-B1B2-A3BB897F5DCA}">
@@ -1790,18 +2474,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E24:E30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E25F3721-EFBA-48C5-B77A-001AF2CBBD07}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J21:J28 J3:J7 J9:J10 J12:J15 J17:J19</xm:sqref>
+          <xm:sqref>E24:E28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Longtan site lithic types.xlsx
+++ b/Longtan site lithic types.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\龙潭文章-正文&amp;补充材料\龙潭发掘Quina标本数据-2023.8\Lithic-data-Longtan-site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8486F9F-3897-4330-A3C9-111358571670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB886C2-AE7B-4719-9685-6C3F78B3F369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{B222558F-C96B-4FA7-9ACE-221ED409920E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>Quina scrapers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Siliceous rock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Diabase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,6 +269,18 @@
   </si>
   <si>
     <t>Typology/Raw materials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chunks&amp;debris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manuports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hornfels</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -348,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -434,13 +442,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -516,6 +535,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,20 +562,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C81475-EFED-448C-88F4-453F683A8818}">
-  <dimension ref="B2:X38"/>
+  <dimension ref="B2:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -879,22 +913,23 @@
     <col min="9" max="9" width="8.640625" style="1"/>
     <col min="10" max="10" width="12" style="1" customWidth="1"/>
     <col min="11" max="12" width="8.640625" style="1"/>
-    <col min="13" max="13" width="23.640625" style="30" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="30" customWidth="1"/>
-    <col min="15" max="15" width="9.35546875" style="30" customWidth="1"/>
-    <col min="16" max="16" width="8.2109375" style="30" customWidth="1"/>
-    <col min="17" max="17" width="8.640625" style="30"/>
-    <col min="18" max="18" width="10.640625" style="30" customWidth="1"/>
-    <col min="19" max="19" width="6.5" style="30" customWidth="1"/>
-    <col min="20" max="20" width="14.0703125" style="30" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" style="30" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="30" customWidth="1"/>
-    <col min="23" max="23" width="7.640625" style="30" customWidth="1"/>
-    <col min="24" max="24" width="7.0703125" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.640625" style="1"/>
+    <col min="13" max="13" width="23.5703125" style="25" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="25" customWidth="1"/>
+    <col min="15" max="15" width="9.35546875" style="25" customWidth="1"/>
+    <col min="16" max="16" width="8.2109375" style="25" customWidth="1"/>
+    <col min="17" max="17" width="8.640625" style="25"/>
+    <col min="18" max="18" width="10.640625" style="25" customWidth="1"/>
+    <col min="19" max="19" width="6.5" style="25" customWidth="1"/>
+    <col min="20" max="20" width="9.2109375" style="25" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" style="25" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="25" customWidth="1"/>
+    <col min="23" max="23" width="7.640625" style="25" customWidth="1"/>
+    <col min="24" max="24" width="9" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.78515625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.35">
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
@@ -908,44 +943,47 @@
         <v>20</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" s="32" t="s">
+      <c r="W2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B3" s="25" t="s">
+      <c r="X2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -968,7 +1006,7 @@
         <f t="shared" ref="J3:J8" si="1">I3/139</f>
         <v>0.1223021582733813</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="27" t="s">
         <v>39</v>
       </c>
       <c r="N3" s="2">
@@ -987,13 +1025,17 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="12">
+      <c r="X3" s="13">
         <f>SUM(N3:W3)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B4" s="25"/>
+      <c r="Y3" s="20">
+        <f>X3/3487</f>
+        <v>4.0149125322626903E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B4" s="29"/>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
@@ -1014,7 +1056,7 @@
         <f t="shared" si="1"/>
         <v>0.25899280575539568</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="27" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="2">
@@ -1035,13 +1077,17 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="12">
+      <c r="X4" s="13">
         <f t="shared" ref="X4:X23" si="2">SUM(N4:W4)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B5" s="25"/>
+      <c r="Y4" s="20">
+        <f t="shared" ref="Y4:Y25" si="3">X4/3487</f>
+        <v>2.0074562661313452E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B5" s="29"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1062,7 +1108,7 @@
         <f t="shared" si="1"/>
         <v>0.41007194244604317</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="27" t="s">
         <v>15</v>
       </c>
       <c r="N5" s="2">
@@ -1081,13 +1127,17 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="12">
+      <c r="X5" s="13">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B6" s="25"/>
+      <c r="Y5" s="20">
+        <f t="shared" si="3"/>
+        <v>6.0223687983940351E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B6" s="29"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1108,8 +1158,8 @@
         <f t="shared" si="1"/>
         <v>0.1079136690647482</v>
       </c>
-      <c r="M6" s="32" t="s">
-        <v>52</v>
+      <c r="M6" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="N6" s="2">
         <v>10</v>
@@ -1127,13 +1177,17 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="12">
+      <c r="X6" s="13">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B7" s="25"/>
+      <c r="Y6" s="20">
+        <f t="shared" si="3"/>
+        <v>4.3016919988528822E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B7" s="29"/>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1208,7 @@
         <f t="shared" si="1"/>
         <v>0.10071942446043165</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="27" t="s">
         <v>12</v>
       </c>
       <c r="N7" s="2">
@@ -1187,13 +1241,17 @@
       <c r="W7" s="2">
         <v>3</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="13">
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B8" s="25"/>
+      <c r="Y7" s="20">
+        <f t="shared" si="3"/>
+        <v>3.498709492400344E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B8" s="29"/>
       <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1214,55 +1272,59 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M8" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="M8" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="9">
         <f>SUM(N3:N7)</f>
         <v>124</v>
       </c>
-      <c r="O8" s="2">
-        <f t="shared" ref="O8:W8" si="3">SUM(O3:O7)</f>
+      <c r="O8" s="9">
+        <f t="shared" ref="O8:W8" si="4">SUM(O3:O7)</f>
         <v>17</v>
       </c>
-      <c r="P8" s="2">
-        <f t="shared" si="3"/>
+      <c r="P8" s="9">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="3"/>
+      <c r="Q8" s="9">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="R8" s="2">
-        <f t="shared" si="3"/>
+      <c r="R8" s="9">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="S8" s="2">
-        <f t="shared" si="3"/>
+      <c r="S8" s="9">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="T8" s="2">
-        <f t="shared" si="3"/>
+      <c r="T8" s="9">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="U8" s="2">
-        <f t="shared" si="3"/>
+      <c r="U8" s="9">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="V8" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="W8" s="2">
-        <f t="shared" si="3"/>
+      <c r="V8" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W8" s="9">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="X8" s="12">
+      <c r="X8" s="13">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="Y8" s="39">
+        <f t="shared" si="3"/>
+        <v>5.1333524519644395E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="D9" s="14">
         <v>242</v>
@@ -1284,7 +1346,7 @@
         <f>I9/47</f>
         <v>0.57446808510638303</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="27" t="s">
         <v>7</v>
       </c>
       <c r="N9" s="2">
@@ -1303,12 +1365,16 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="12">
+      <c r="X9" s="13">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="Y9" s="20">
+        <f t="shared" si="3"/>
+        <v>4.3016919988528822E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="D10" s="11"/>
       <c r="F10" s="19"/>
@@ -1322,8 +1388,8 @@
         <f>I10/47</f>
         <v>0.42553191489361702</v>
       </c>
-      <c r="M10" s="32" t="s">
-        <v>53</v>
+      <c r="M10" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="N10" s="2">
         <v>34</v>
@@ -1345,12 +1411,16 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-      <c r="X10" s="12">
+      <c r="X10" s="13">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="Y10" s="20">
+        <f t="shared" si="3"/>
+        <v>1.2905075996558647E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1368,8 +1438,8 @@
         <f>I11/47</f>
         <v>1</v>
       </c>
-      <c r="M11" s="32" t="s">
-        <v>54</v>
+      <c r="M11" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="N11" s="2">
         <v>4</v>
@@ -1385,13 +1455,17 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="12">
+      <c r="X11" s="13">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B12" s="27" t="s">
+      <c r="Y11" s="20">
+        <f t="shared" si="3"/>
+        <v>1.4338973329509608E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B12" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1401,7 +1475,7 @@
         <v>476</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" ref="E12:E20" si="4">D12/878</f>
+        <f t="shared" ref="E12:E20" si="5">D12/878</f>
         <v>0.54214123006833714</v>
       </c>
       <c r="F12" s="19">
@@ -1418,7 +1492,7 @@
         <f>I12/59</f>
         <v>0.3559322033898305</v>
       </c>
-      <c r="M12" s="32" t="s">
+      <c r="M12" s="27" t="s">
         <v>25</v>
       </c>
       <c r="N12" s="2">
@@ -1441,13 +1515,17 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="12">
+      <c r="X12" s="13">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B13" s="28"/>
+      <c r="Y12" s="20">
+        <f t="shared" si="3"/>
+        <v>7.743045597935188E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B13" s="32"/>
       <c r="C13" s="6" t="s">
         <v>27</v>
       </c>
@@ -1455,7 +1533,7 @@
         <v>254</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28929384965831434</v>
       </c>
       <c r="F13" s="19"/>
@@ -1469,7 +1547,7 @@
         <f>I13/59</f>
         <v>0.11864406779661017</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="27" t="s">
         <v>40</v>
       </c>
       <c r="N13" s="2">
@@ -1492,13 +1570,17 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="12">
+      <c r="X13" s="13">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B14" s="28"/>
+      <c r="Y13" s="20">
+        <f t="shared" si="3"/>
+        <v>1.6346429595640952E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B14" s="32"/>
       <c r="C14" s="13" t="s">
         <v>7</v>
       </c>
@@ -1506,11 +1588,11 @@
         <v>15</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7084282460136675E-2</v>
       </c>
       <c r="F14" s="19">
-        <f t="shared" ref="F14:F20" si="5">D14/624</f>
+        <f t="shared" ref="F14:F20" si="6">D14/624</f>
         <v>2.403846153846154E-2</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -1523,10 +1605,10 @@
         <f>I14/59</f>
         <v>0.2711864406779661</v>
       </c>
-      <c r="M14" s="32" t="s">
+      <c r="M14" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N14" s="26">
         <v>366</v>
       </c>
       <c r="O14" s="2">
@@ -1554,13 +1636,17 @@
         <v>1</v>
       </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="12">
+      <c r="X14" s="13">
         <f t="shared" si="2"/>
         <v>475</v>
       </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B15" s="28"/>
+      <c r="Y14" s="20">
+        <f t="shared" si="3"/>
+        <v>0.13622024663034127</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B15" s="32"/>
       <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
@@ -1568,11 +1654,11 @@
         <v>16</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8223234624145785E-2</v>
       </c>
       <c r="F15" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.564102564102564E-2</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -1585,7 +1671,7 @@
         <f>I15/59</f>
         <v>0.25423728813559321</v>
       </c>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="27" t="s">
         <v>27</v>
       </c>
       <c r="N15" s="2">
@@ -1614,13 +1700,17 @@
       <c r="W15" s="2">
         <v>1</v>
       </c>
-      <c r="X15" s="12">
+      <c r="X15" s="13">
         <f t="shared" si="2"/>
         <v>254</v>
       </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B16" s="28"/>
+      <c r="Y15" s="20">
+        <f t="shared" si="3"/>
+        <v>7.2841984513908803E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B16" s="32"/>
       <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
@@ -1628,11 +1718,11 @@
         <v>21</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3917995444191344E-2</v>
       </c>
       <c r="F16" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.3653846153846152E-2</v>
       </c>
       <c r="H16" s="17" t="s">
@@ -1645,56 +1735,60 @@
         <f>I16/59</f>
         <v>1</v>
       </c>
-      <c r="M16" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="N16" s="2">
+      <c r="M16" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="9">
         <f>SUM(N9:N15)</f>
         <v>695</v>
       </c>
-      <c r="O16" s="2">
-        <f t="shared" ref="O16:W16" si="6">SUM(O9:O15)</f>
+      <c r="O16" s="9">
+        <f t="shared" ref="O16:W16" si="7">SUM(O9:O15)</f>
         <v>56</v>
       </c>
-      <c r="P16" s="2">
-        <f t="shared" si="6"/>
+      <c r="P16" s="9">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="Q16" s="2">
-        <f t="shared" si="6"/>
+      <c r="Q16" s="9">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="R16" s="2">
-        <f t="shared" si="6"/>
+      <c r="R16" s="9">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="S16" s="2">
-        <f t="shared" si="6"/>
+      <c r="S16" s="9">
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
-      <c r="T16" s="2">
-        <f t="shared" si="6"/>
+      <c r="T16" s="9">
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="U16" s="2">
-        <f t="shared" si="6"/>
+      <c r="U16" s="9">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="V16" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W16" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="X16" s="12">
+      <c r="V16" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="W16" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="X16" s="13">
         <f t="shared" si="2"/>
         <v>878</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B17" s="28"/>
+      <c r="Y16" s="39">
+        <f t="shared" si="3"/>
+        <v>0.25179237166618867</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B17" s="32"/>
       <c r="C17" s="6" t="s">
         <v>24</v>
       </c>
@@ -1702,11 +1796,11 @@
         <v>7</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.972665148063782E-3</v>
       </c>
       <c r="F17" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1217948717948718E-2</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -1719,7 +1813,7 @@
         <f>I17/12</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="M17" s="27" t="s">
         <v>0</v>
       </c>
       <c r="N17" s="2">
@@ -1738,13 +1832,17 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-      <c r="X17" s="12">
+      <c r="X17" s="13">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B18" s="28"/>
+      <c r="Y17" s="20">
+        <f t="shared" si="3"/>
+        <v>1.5199311729280183E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B18" s="32"/>
       <c r="C18" s="6" t="s">
         <v>9</v>
       </c>
@@ -1752,11 +1850,11 @@
         <v>5</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6947608200455585E-3</v>
       </c>
       <c r="F18" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.0128205128205121E-3</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -1769,7 +1867,7 @@
         <f>I18/12</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M18" s="32" t="s">
+      <c r="M18" s="27" t="s">
         <v>41</v>
       </c>
       <c r="N18" s="2">
@@ -1794,13 +1892,17 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-      <c r="X18" s="12">
+      <c r="X18" s="13">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B19" s="28"/>
+      <c r="Y18" s="20">
+        <f t="shared" si="3"/>
+        <v>2.2655577860625178E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B19" s="32"/>
       <c r="C19" s="6" t="s">
         <v>25</v>
       </c>
@@ -1808,11 +1910,11 @@
         <v>27</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0751708428246014E-2</v>
       </c>
       <c r="F19" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3269230769230768E-2</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -1825,7 +1927,7 @@
         <f>I19/12</f>
         <v>0.25</v>
       </c>
-      <c r="M19" s="32" t="s">
+      <c r="M19" s="27" t="s">
         <v>3</v>
       </c>
       <c r="N19" s="2">
@@ -1842,13 +1944,17 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
-      <c r="X19" s="12">
+      <c r="X19" s="13">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B20" s="29"/>
+      <c r="Y19" s="20">
+        <f t="shared" si="3"/>
+        <v>3.728133065672498E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B20" s="33"/>
       <c r="C20" s="13" t="s">
         <v>10</v>
       </c>
@@ -1856,11 +1962,11 @@
         <v>57</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.4920273348519367E-2</v>
       </c>
       <c r="F20" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.1346153846153841E-2</v>
       </c>
       <c r="H20" s="17" t="s">
@@ -1873,7 +1979,7 @@
         <f>I20/12</f>
         <v>1</v>
       </c>
-      <c r="M20" s="32" t="s">
+      <c r="M20" s="27" t="s">
         <v>4</v>
       </c>
       <c r="N20" s="2">
@@ -1896,12 +2002,16 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
-      <c r="X20" s="12">
+      <c r="X20" s="13">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="Y20" s="20">
+        <f t="shared" si="3"/>
+        <v>4.5884714654430741E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.35">
       <c r="D21" s="14">
         <v>878</v>
       </c>
@@ -1923,7 +2033,7 @@
         <f>I21/1042</f>
         <v>0.45681381957773515</v>
       </c>
-      <c r="M21" s="32" t="s">
+      <c r="M21" s="27" t="s">
         <v>19</v>
       </c>
       <c r="N21" s="2">
@@ -1946,12 +2056,16 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="12">
+      <c r="X21" s="13">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="Y21" s="20">
+        <f t="shared" si="3"/>
+        <v>2.3229136793805564E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
       <c r="F22" s="19"/>
       <c r="H22" s="6" t="s">
@@ -1961,49 +2075,53 @@
         <v>254</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" ref="J22:J29" si="7">I22/1042</f>
+        <f t="shared" ref="J22:J29" si="8">I22/1042</f>
         <v>0.2437619961612284</v>
       </c>
-      <c r="M22" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="N22" s="2">
+      <c r="M22" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="N22" s="9">
         <f>SUM(N17:N21)</f>
         <v>197</v>
       </c>
-      <c r="O22" s="2">
-        <f t="shared" ref="O22:W22" si="8">SUM(O17:O21)</f>
+      <c r="O22" s="9">
+        <f t="shared" ref="O22:T22" si="9">SUM(O17:O21)</f>
         <v>20</v>
       </c>
-      <c r="P22" s="2">
-        <f t="shared" si="8"/>
+      <c r="P22" s="9">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="Q22" s="2">
-        <f t="shared" si="8"/>
+      <c r="Q22" s="9">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="R22" s="2">
-        <f t="shared" si="8"/>
+      <c r="R22" s="9">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="S22" s="2">
-        <f t="shared" si="8"/>
+      <c r="S22" s="9">
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="T22" s="2">
-        <f t="shared" si="8"/>
+      <c r="T22" s="9">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="12">
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="13">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="Y22" s="39">
+        <f t="shared" si="3"/>
+        <v>6.9400630914826497E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.35">
       <c r="D23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2018,49 +2136,52 @@
         <v>79</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.5815738963531665E-2</v>
       </c>
-      <c r="M23" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="N23" s="9">
-        <v>1016</v>
-      </c>
-      <c r="O23" s="9">
-        <v>93</v>
-      </c>
-      <c r="P23" s="9">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>13</v>
-      </c>
-      <c r="R23" s="9">
-        <v>13</v>
-      </c>
-      <c r="S23" s="9">
+      <c r="M23" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1034</v>
+      </c>
+      <c r="O23" s="2">
+        <v>175</v>
+      </c>
+      <c r="P23" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>15</v>
+      </c>
+      <c r="R23" s="2">
+        <v>99</v>
+      </c>
+      <c r="S23" s="2">
+        <v>109</v>
+      </c>
+      <c r="T23" s="2">
+        <v>376</v>
+      </c>
+      <c r="U23" s="2">
+        <v>84</v>
+      </c>
+      <c r="V23" s="2">
+        <v>9</v>
+      </c>
+      <c r="W23" s="2">
         <v>103</v>
       </c>
-      <c r="T23" s="9">
-        <v>25</v>
-      </c>
-      <c r="U23" s="9">
-        <v>10</v>
-      </c>
-      <c r="V23" s="9">
-        <v>2</v>
-      </c>
-      <c r="W23" s="9">
-        <v>4</v>
-      </c>
-      <c r="X23" s="12">
-        <f t="shared" si="2"/>
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B24" s="27" t="s">
+      <c r="X23" s="13">
+        <v>2038</v>
+      </c>
+      <c r="Y23" s="20">
+        <f t="shared" si="3"/>
+        <v>0.58445655291081156</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B24" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -2070,7 +2191,7 @@
         <v>122</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" ref="E24:E29" si="9">D24/179</f>
+        <f t="shared" ref="E24:E29" si="10">D24/179</f>
         <v>0.68156424581005581</v>
       </c>
       <c r="F24" s="19"/>
@@ -2081,12 +2202,34 @@
         <v>13</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2476007677543186E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B25" s="28"/>
+      <c r="M24" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="2">
+        <v>150</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="13">
+        <v>150</v>
+      </c>
+      <c r="Y24" s="20">
+        <f t="shared" si="3"/>
+        <v>4.3016919988528822E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B25" s="32"/>
       <c r="C25" s="12" t="s">
         <v>13</v>
       </c>
@@ -2094,7 +2237,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.8212290502793297E-2</v>
       </c>
       <c r="F25" s="19"/>
@@ -2105,12 +2248,53 @@
         <v>16</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5355086372360844E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B26" s="28"/>
+      <c r="M25" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" s="36">
+        <v>2200</v>
+      </c>
+      <c r="O25" s="36">
+        <v>268</v>
+      </c>
+      <c r="P25" s="36">
+        <v>54</v>
+      </c>
+      <c r="Q25" s="36">
+        <v>28</v>
+      </c>
+      <c r="R25" s="36">
+        <v>112</v>
+      </c>
+      <c r="S25" s="36">
+        <v>212</v>
+      </c>
+      <c r="T25" s="36">
+        <v>401</v>
+      </c>
+      <c r="U25" s="36">
+        <v>94</v>
+      </c>
+      <c r="V25" s="36">
+        <v>11</v>
+      </c>
+      <c r="W25" s="36">
+        <v>107</v>
+      </c>
+      <c r="X25" s="37">
+        <f>SUM(N25:W25)</f>
+        <v>3487</v>
+      </c>
+      <c r="Y25" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B26" s="32"/>
       <c r="C26" s="3" t="s">
         <v>14</v>
       </c>
@@ -2118,7 +2302,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.9106145251396648E-2</v>
       </c>
       <c r="F26" s="19"/>
@@ -2129,12 +2313,60 @@
         <v>81</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.7735124760076782E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B27" s="28"/>
+      <c r="M26" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="7">
+        <f>N25/3487</f>
+        <v>0.63091482649842268</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" ref="O26:X26" si="11">O25/3487</f>
+        <v>7.6856897046171491E-2</v>
+      </c>
+      <c r="P26" s="7">
+        <f t="shared" si="11"/>
+        <v>1.5486091195870376E-2</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" si="11"/>
+        <v>8.0298250645253807E-3</v>
+      </c>
+      <c r="R26" s="7">
+        <f t="shared" si="11"/>
+        <v>3.2119300258101523E-2</v>
+      </c>
+      <c r="S26" s="7">
+        <f t="shared" si="11"/>
+        <v>6.0797246917120733E-2</v>
+      </c>
+      <c r="T26" s="7">
+        <f t="shared" si="11"/>
+        <v>0.11499856610266705</v>
+      </c>
+      <c r="U26" s="7">
+        <f t="shared" si="11"/>
+        <v>2.6957269859478061E-2</v>
+      </c>
+      <c r="V26" s="7">
+        <f t="shared" si="11"/>
+        <v>3.1545741324921135E-3</v>
+      </c>
+      <c r="W26" s="7">
+        <f t="shared" si="11"/>
+        <v>3.0685402925150561E-2</v>
+      </c>
+      <c r="X26" s="7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B27" s="32"/>
       <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
@@ -2142,7 +2374,7 @@
         <v>21</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.11731843575418995</v>
       </c>
       <c r="F27" s="19"/>
@@ -2153,12 +2385,12 @@
         <v>116</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11132437619961612</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B28" s="28"/>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B28" s="32"/>
       <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
@@ -2166,7 +2398,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.3798882681564241E-2</v>
       </c>
       <c r="F28" s="19"/>
@@ -2177,17 +2409,17 @@
         <v>7</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.7178502879078695E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B29" s="28"/>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B29" s="32"/>
       <c r="D29" s="14">
         <v>179</v>
       </c>
       <c r="E29" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F29" s="19"/>
@@ -2198,12 +2430,12 @@
         <v>1042</v>
       </c>
       <c r="J29" s="7">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B30" s="29"/>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B30" s="33"/>
       <c r="F30" s="20">
         <f>D29/3487</f>
         <v>5.1333524519644395E-2</v>
@@ -2211,11 +2443,11 @@
       <c r="H30" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="30">
         <f>I29+I20+I16+I11+I8</f>
         <v>1299</v>
       </c>
-      <c r="J30" s="26"/>
+      <c r="J30" s="30"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D33" s="2" t="s">
@@ -2227,7 +2459,7 @@
       <c r="F33" s="19"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -2243,7 +2475,7 @@
       <c r="F34" s="19"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="25"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="6" t="s">
         <v>26</v>
       </c>
@@ -2330,34 +2562,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E35 E12:E20">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.59999389629810485"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2F4AC0A7-4C96-493D-B65F-DB325B73DC89}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21:J28 J3:J7 J9:J10 J12:J15 J17:J19">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9" tint="0.59999389629810485"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E25F3721-EFBA-48C5-B77A-001AF2CBBD07}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E24:E28">
     <cfRule type="dataBar" priority="15">
       <dataBar>
@@ -2396,6 +2600,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E35 E12:E20">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2F4AC0A7-4C96-493D-B65F-DB325B73DC89}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:J28 J3:J7 J9:J10 J12:J15 J17:J19">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E25F3721-EFBA-48C5-B77A-001AF2CBBD07}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -2428,28 +2660,6 @@
           <xm:sqref>E3:E8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2F4AC0A7-4C96-493D-B65F-DB325B73DC89}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E34:E35 E12:E20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E25F3721-EFBA-48C5-B77A-001AF2CBBD07}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J21:J28 J3:J7 J9:J10 J12:J15 J17:J19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{941911BD-5580-4AFE-B1B2-A3BB897F5DCA}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -2476,6 +2686,28 @@
           </x14:cfRule>
           <xm:sqref>E24:E28</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2F4AC0A7-4C96-493D-B65F-DB325B73DC89}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E34:E35 E12:E20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E25F3721-EFBA-48C5-B77A-001AF2CBBD07}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J21:J28 J3:J7 J9:J10 J12:J15 J17:J19</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
